--- a/Test circuits/Pasa altas/pasa_altas.xlsx
+++ b/Test circuits/Pasa altas/pasa_altas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cinvestav365-my.sharepoint.com/personal/saul_gonzalez_cinvestav_mx/Documents/Documentos 1/MATLAB/Proyecto Simulador de circuitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\Pasa altas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D2F04E46CFB4ACB3E20592D96C87C693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40ACD311-D4F9-445A-8E7C-9A4AF9188E96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716718D-2860-4B02-B912-45CC8799C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="18514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Bl</t>
+  </si>
+  <si>
+    <t>Operating Freq</t>
   </si>
 </sst>
 </file>
@@ -140,10 +146,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,12 +414,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +435,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -451,7 +459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -468,7 +476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -485,7 +493,7 @@
         <v>1.2999999999999999E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -502,7 +510,7 @@
         <v>4.6999999999999999E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" s="4"/>
     </row>
   </sheetData>
